--- a/archivos_xlsx/66Cu.xlsx
+++ b/archivos_xlsx/66Cu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianquinteroarias/Desktop/JupyterFolder/NuclearP/archivos_xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9230CD-86F6-B44D-A3FB-5481EEBBCFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CC41DC-585A-EA42-A3B4-41B88C33AC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27980" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -697,7 +697,7 @@
   <dimension ref="A1:AF125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J123" sqref="J123"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
